--- a/data/vlsp2016/eda/test/column-2-analyze.xlsx
+++ b/data/vlsp2016/eda/test/column-2-analyze.xlsx
@@ -20,67 +20,67 @@
     <t>2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
     <t>B-AP</t>
   </si>
   <si>
+    <t>A, Np, FW</t>
+  </si>
+  <si>
     <t>nhiều, hơn, nhất, gần, khác, cùng, lớn, cao, đầu tiên, nghèo</t>
   </si>
   <si>
-    <t>A, Np, FW</t>
-  </si>
-  <si>
     <t>B-NP</t>
   </si>
   <si>
+    <t>N, P, M, Np, Nc, L, Nu, FW, Ny, V</t>
+  </si>
+  <si>
     <t>một, người, ông, những, các, năm, tôi, khi, nhà, anh</t>
   </si>
   <si>
-    <t>N, P, M, Np, Nc, L, Nu, FW, Ny, V</t>
-  </si>
-  <si>
     <t>B-PP</t>
   </si>
   <si>
+    <t>E, Np</t>
+  </si>
+  <si>
     <t>của, trong, với, ở, cho, để, đến, vào, từ, trên</t>
   </si>
   <si>
-    <t>E, Np</t>
-  </si>
-  <si>
     <t>B-VP</t>
   </si>
   <si>
+    <t>V, Vy, FW</t>
+  </si>
+  <si>
     <t>là, có, đi, được, làm, phải, lên, ra, bị, nói</t>
   </si>
   <si>
-    <t>V, Vy, FW</t>
-  </si>
-  <si>
     <t>I-NP</t>
   </si>
   <si>
-    <t>Văn, Nam, Hoà, Thị, Sang, HCM, Oanh, Cảnh, Việt, Mai</t>
-  </si>
-  <si>
-    <t>Np, N, M, CH, V, Ny, A, C, FW, Nc</t>
+    <t>Np, N, M, CH, V, Ny, A, FW, C, X</t>
+  </si>
+  <si>
+    <t>Văn, Nam, Hoà, Thị, Sang, HCM, Cảnh, Oanh, Việt, Á</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
+    <t>CH, R, C, T, X, I, Z, FW</t>
+  </si>
+  <si>
     <t>,, ., “, ”, và, đã, không, :, ..., -</t>
-  </si>
-  <si>
-    <t>CH, R, C, T, X, I, Z, FW</t>
   </si>
 </sst>
 </file>
@@ -458,11 +458,11 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="n">
+        <v>3953</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3953</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -472,11 +472,11 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="n">
+        <v>26980</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26980</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -486,11 +486,11 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="n">
+        <v>3817</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3817</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -500,11 +500,11 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="n">
+        <v>12634</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12634</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -514,11 +514,11 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="n">
+        <v>1892</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1892</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -528,11 +528,11 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="n">
+        <v>16821</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" t="n">
-        <v>16821</v>
       </c>
     </row>
   </sheetData>
